--- a/menu-items.xlsx
+++ b/menu-items.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,6 +426,9 @@
       <c r="E2" t="str">
         <v>MaxPrice</v>
       </c>
+      <c r="F2" t="str">
+        <v>FreebiesLeft</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -443,6 +446,9 @@
       <c r="E3">
         <v>30</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -460,6 +466,9 @@
       <c r="E4">
         <v>40</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -477,10 +486,13 @@
       <c r="E5">
         <v>80</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/menu-items.xlsx
+++ b/menu-items.xlsx
@@ -409,6 +409,9 @@
       <c r="B1" t="str">
         <v>Flavours Fusion 2025</v>
       </c>
+      <c r="C1">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -447,7 +450,7 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/menu-items.xlsx
+++ b/menu-items.xlsx
@@ -410,7 +410,7 @@
         <v>Flavours Fusion 2025</v>
       </c>
       <c r="C1">
-        <v>0.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -450,7 +450,7 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
